--- a/source/img/housing starts suttor.xlsx
+++ b/source/img/housing starts suttor.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="21800" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Canada" sheetId="1" r:id="rId1"/>
     <sheet name="Ontario" sheetId="2" r:id="rId2"/>
-    <sheet name="Ontario (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Canada Suttor + CMHC" sheetId="6" r:id="rId3"/>
+    <sheet name="CMHC Starts and Completions 10k" sheetId="5" r:id="rId4"/>
+    <sheet name="Ontario (2)" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Single &amp; Semi</t>
   </si>
@@ -59,6 +61,18 @@
   </si>
   <si>
     <t>Privately Initiated</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Private Rentals</t>
+  </si>
+  <si>
+    <t> CMHC Starts and Completions Survey (In Census Metropolitan Areas, Census Agglomerations, and other, selected municipalities with at least 10,000 people)</t>
+  </si>
+  <si>
+    <t>Rentals + Co-op</t>
   </si>
 </sst>
 </file>
@@ -126,6 +140,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Canada</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Housing Starts, 1965-2001</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -164,15 +208,545 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Canada!$G$2</c:f>
+              <c:f>Canada!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rental</c:v>
+                  <c:v>Social Housing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Canada!$A$17:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1965.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1966.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1967.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1968.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1970.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1971.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1972.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1973.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1974.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1975.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1976.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1977.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1978.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1979.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Canada!$H$17:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>4576.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7034.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10834.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11593.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18931.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25098.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26874.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20421.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18683.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22017.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22197.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26511.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15950.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15212.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18464.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21008.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21972.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20450.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20098.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18254.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19649.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16987.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21100.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19700.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17400.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17100.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24400.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22100.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21433.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9465.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4363.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2755.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2715.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1128.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Canada!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Private Rentals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Canada!$A$17:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1965.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1966.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1967.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1968.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1970.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1971.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1972.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1973.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1974.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1975.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1976.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1977.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1978.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1979.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Canada!$I$17:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>73314.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44517.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63424.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91790.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91986.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66800.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79313.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83294.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87768.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52008.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48164.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62813.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76377.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62115.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39923.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27321.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39637.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32712.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24026.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21746.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17351.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24013.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30900.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18300.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17151.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17394.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9207.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10249.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3457.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4342.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4415.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4978.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5403.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7680.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8660.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13297.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Canada!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Condominium</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -189,161 +763,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Canada!$A$3:$A$53</c:f>
+              <c:f>Canada!$A$17:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1951.0</c:v>
+                  <c:v>1965.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1952.0</c:v>
+                  <c:v>1966.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1953.0</c:v>
+                  <c:v>1967.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1954.0</c:v>
+                  <c:v>1968.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1955.0</c:v>
+                  <c:v>1969.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1956.0</c:v>
+                  <c:v>1970.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1957.0</c:v>
+                  <c:v>1971.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1958.0</c:v>
+                  <c:v>1972.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1959.0</c:v>
+                  <c:v>1973.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960.0</c:v>
+                  <c:v>1974.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1961.0</c:v>
+                  <c:v>1975.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1962.0</c:v>
+                  <c:v>1976.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1963.0</c:v>
+                  <c:v>1977.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1964.0</c:v>
+                  <c:v>1978.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1965.0</c:v>
+                  <c:v>1979.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1966.0</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1967.0</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1968.0</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1969.0</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1970.0</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1971.0</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1972.0</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1973.0</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1974.0</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1975.0</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1976.0</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1977.0</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1978.0</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1979.0</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1980.0</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1981.0</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1982.0</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1983.0</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1984.0</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1985.0</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1986.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1987.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1988.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1989.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1990.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1991.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1992.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1993.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1994.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1995.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
                   <c:v>2001.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -351,177 +883,90 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Canada!$G$3:$G$53</c:f>
+              <c:f>Canada!$F$17:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>18565.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24828.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29881.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33177.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35823.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33554.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36251.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56609.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44340.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36838.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46100.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>52859.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>69857.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>85324.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>77890.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51551.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>74258.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>103383.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>110917.0</c:v>
+                  <c:v>9088.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91898.0</c:v>
+                  <c:v>11012.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>106187.0</c:v>
+                  <c:v>13958.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>103715.0</c:v>
+                  <c:v>22448.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>106451.0</c:v>
+                  <c:v>34774.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>74025.0</c:v>
+                  <c:v>36923.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70361.0</c:v>
+                  <c:v>38914.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>89324.0</c:v>
+                  <c:v>29359.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>92327.0</c:v>
+                  <c:v>18649.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>77327.0</c:v>
+                  <c:v>23250.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58387.0</c:v>
+                  <c:v>32017.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48329.0</c:v>
+                  <c:v>31686.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>61609.0</c:v>
+                  <c:v>24106.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>53162.0</c:v>
+                  <c:v>23076.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44124.0</c:v>
+                  <c:v>27471.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40000.0</c:v>
+                  <c:v>27351.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>37000.0</c:v>
+                  <c:v>28434.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41000.0</c:v>
+                  <c:v>28319.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>52000.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38000.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>34551.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>34494.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33607.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>32349.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>19566.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12922.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8705.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7170.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7693.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6531.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9280.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10260.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14897.0</c:v>
+                  <c:v>31986.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Canada!$F$2</c:f>
+              <c:f>Canada!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Condominium</c:v>
+                  <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -538,161 +983,119 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Canada!$A$3:$A$53</c:f>
+              <c:f>Canada!$A$17:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1951.0</c:v>
+                  <c:v>1965.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1952.0</c:v>
+                  <c:v>1966.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1953.0</c:v>
+                  <c:v>1967.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1954.0</c:v>
+                  <c:v>1968.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1955.0</c:v>
+                  <c:v>1969.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1956.0</c:v>
+                  <c:v>1970.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1957.0</c:v>
+                  <c:v>1971.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1958.0</c:v>
+                  <c:v>1972.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1959.0</c:v>
+                  <c:v>1973.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1960.0</c:v>
+                  <c:v>1974.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1961.0</c:v>
+                  <c:v>1975.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1962.0</c:v>
+                  <c:v>1976.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1963.0</c:v>
+                  <c:v>1977.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1964.0</c:v>
+                  <c:v>1978.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1965.0</c:v>
+                  <c:v>1979.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1966.0</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1967.0</c:v>
+                  <c:v>1981.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1968.0</c:v>
+                  <c:v>1982.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1969.0</c:v>
+                  <c:v>1983.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1970.0</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1971.0</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1972.0</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1973.0</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1974.0</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1975.0</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1976.0</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1977.0</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1978.0</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1979.0</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1980.0</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1981.0</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1982.0</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1983.0</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1984.0</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1985.0</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1986.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1987.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1988.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1989.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1990.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1991.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1992.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1993.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1994.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1995.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
                   <c:v>2001.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -700,117 +1103,120 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Canada!$F$3:$F$53</c:f>
+              <c:f>Canada!$J$17:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>88675.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>82923.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>89865.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>93495.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>99498.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>98630.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>127466.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>146199.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>162078.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>148098.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>161095.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>183879.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>153397.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>150340.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>138662.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>110272.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>116364.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72698.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>118521.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94900.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128826.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>158785.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>193986.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>184562.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>180831.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>147136.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>122590.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135922.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>134010.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>141135.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102228.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>117543.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9088.0</c:v>
+                  <c:v>139347.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11012.0</c:v>
+                  <c:v>130908.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13958.0</c:v>
+                  <c:v>140688.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22448.0</c:v>
+                  <c:v>141393.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>34774.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>36923.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38914.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>29359.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>18649.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23250.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>32017.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>31686.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>24106.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>23076.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>27471.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>27351.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>28434.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>28319.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>31986.0</c:v>
+                  <c:v>147836.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,13 +1230,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="-2128567056"/>
-        <c:axId val="-2128302480"/>
+        <c:axId val="-2095238688"/>
+        <c:axId val="-2090318800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128567056"/>
+        <c:axId val="-2095238688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128302480"/>
+        <c:crossAx val="-2090318800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -881,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128302480"/>
+        <c:axId val="-2090318800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,6 +1307,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -931,7 +1338,1301 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128567056"/>
+        <c:crossAx val="-2095238688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Canada</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Housing Starts, 1965-2001</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Canada Suttor + CMHC'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Social Housing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Canada Suttor + CMHC'!$A$17:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1965.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1966.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1967.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1968.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1970.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1971.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1972.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1973.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1974.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1975.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1976.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1977.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1978.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1979.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Canada Suttor + CMHC'!$H$17:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>4576.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7034.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10834.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11593.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18931.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25098.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26874.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20421.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18683.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22017.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22197.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26511.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15950.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15212.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18464.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21008.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21972.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20450.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20098.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18254.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19649.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16987.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21100.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19700.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17400.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17100.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24400.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22100.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21433.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9465.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4363.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2755.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2715.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1128.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Canada Suttor + CMHC'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rentals + Co-op</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Canada Suttor + CMHC'!$A$17:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1965.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1966.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1967.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1968.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1970.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1971.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1972.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1973.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1974.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1975.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1976.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1977.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1978.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1979.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Canada Suttor + CMHC'!$I$17:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>73314.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44517.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63424.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91790.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91986.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66800.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79313.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83294.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87768.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52008.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48164.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62813.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76377.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62115.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39923.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27321.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39637.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32712.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24026.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21746.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17351.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24013.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30900.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18300.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17151.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17394.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9207.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10249.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3457.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4342.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4415.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4978.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5403.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7680.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8660.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13297.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Canada Suttor + CMHC'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Condominium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Canada Suttor + CMHC'!$A$17:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1965.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1966.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1967.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1968.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1970.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1971.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1972.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1973.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1974.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1975.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1976.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1977.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1978.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1979.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Canada Suttor + CMHC'!$F$17:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9088.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11012.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13958.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22448.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34774.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36923.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38914.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29359.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18649.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23250.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32017.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31686.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24106.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23076.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27471.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27351.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28434.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28319.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31986.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Canada Suttor + CMHC'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Canada Suttor + CMHC'!$A$17:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1965.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1966.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1967.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1968.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1970.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1971.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1972.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1973.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1974.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1975.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1976.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1977.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1978.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1979.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1982.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1983.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1984.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1985.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1986.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1987.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1988.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1992.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1998.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1999.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Canada Suttor + CMHC'!$J$17:$J$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>57328.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56778.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58884.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58822.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59101.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74761.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103239.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105092.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95412.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111485.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120438.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>107874.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101351.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93330.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76684.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80832.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51630.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90083.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70874.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102408.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>129863.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>163340.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>151635.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>148772.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>116295.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96713.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108126.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>108787.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>114628.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81074.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94684.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>115609.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>110266.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>117838.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>120816.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>127476.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="20"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2087364480"/>
+        <c:axId val="-2094515200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2087364480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2094515200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2094515200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2087364480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1013,6 +2714,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1557,25 +3298,567 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1855,20 +4138,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1890,8 +4173,14 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1951</v>
       </c>
@@ -1916,8 +4205,16 @@
       <c r="H3" s="1">
         <v>1549</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <f>MAX(0, G3-H3)</f>
+        <v>17016</v>
+      </c>
+      <c r="J3" s="1">
+        <f>E3-H3-I3</f>
+        <v>50014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>A3+1</f>
         <v>1952</v>
@@ -1943,10 +4240,18 @@
       <c r="H4" s="1">
         <v>1058</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I53" si="0">MAX(0, G4-H4)</f>
+        <v>23770</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J53" si="1">E4-H4-I4</f>
+        <v>58418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A53" si="0">A4+1</f>
+        <f t="shared" ref="A5:A53" si="2">A4+1</f>
         <v>1953</v>
       </c>
       <c r="B5" s="1">
@@ -1970,10 +4275,18 @@
       <c r="H5">
         <v>808</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>29073</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>72528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1954</v>
       </c>
       <c r="B6" s="1">
@@ -1997,10 +4310,18 @@
       <c r="H6" s="1">
         <v>2135</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>31042</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>80350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1955</v>
       </c>
       <c r="B7" s="1">
@@ -2024,10 +4345,18 @@
       <c r="H7">
         <v>995</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>34828</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>102453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1956</v>
       </c>
       <c r="B8" s="1">
@@ -2051,10 +4380,18 @@
       <c r="H8" s="1">
         <v>1260</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>32294</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>93757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1957</v>
       </c>
       <c r="B9" s="1">
@@ -2078,10 +4415,18 @@
       <c r="H9" s="1">
         <v>2156</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>34095</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>86089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1958</v>
       </c>
       <c r="B10" s="1">
@@ -2105,10 +4450,18 @@
       <c r="H10" s="1">
         <v>2329</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>54280</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>108023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1959</v>
       </c>
       <c r="B11" s="1">
@@ -2132,10 +4485,18 @@
       <c r="H11" s="1">
         <v>1511</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>42829</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>97005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1960</v>
       </c>
       <c r="B12" s="1">
@@ -2159,10 +4520,18 @@
       <c r="H12" s="1">
         <v>1427</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>35411</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>72020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1961</v>
       </c>
       <c r="B13" s="1">
@@ -2186,10 +4555,18 @@
       <c r="H13" s="1">
         <v>1634</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>44466</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>79477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1962</v>
       </c>
       <c r="B14" s="1">
@@ -2213,10 +4590,18 @@
       <c r="H14" s="1">
         <v>1687</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>51172</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>77236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1963</v>
       </c>
       <c r="B15" s="1">
@@ -2240,10 +4625,18 @@
       <c r="H15" s="1">
         <v>2878</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>66979</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>78767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1964</v>
       </c>
       <c r="B16" s="1">
@@ -2267,10 +4660,18 @@
       <c r="H16" s="1">
         <v>2235</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>83089</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>80334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1965</v>
       </c>
       <c r="B17" s="1">
@@ -2294,10 +4695,18 @@
       <c r="H17" s="1">
         <v>4576</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>73314</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>88675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1966</v>
       </c>
       <c r="B18" s="1">
@@ -2321,10 +4730,18 @@
       <c r="H18" s="1">
         <v>7034</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>44517</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>82923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1967</v>
       </c>
       <c r="B19" s="1">
@@ -2348,10 +4765,18 @@
       <c r="H19" s="1">
         <v>10834</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>63424</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>89865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1968</v>
       </c>
       <c r="B20" s="1">
@@ -2372,10 +4797,18 @@
       <c r="H20" s="1">
         <v>11593</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>91790</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>93495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1969</v>
       </c>
       <c r="B21" s="1">
@@ -2396,10 +4829,18 @@
       <c r="H21" s="1">
         <v>18931</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>91986</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>99498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="B22" s="1">
@@ -2420,10 +4861,18 @@
       <c r="H22" s="1">
         <v>25098</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>66800</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>98630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1971</v>
       </c>
       <c r="B23" s="1">
@@ -2444,10 +4893,18 @@
       <c r="H23" s="1">
         <v>26874</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>79313</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>127466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1972</v>
       </c>
       <c r="B24" s="1">
@@ -2468,10 +4925,18 @@
       <c r="H24" s="1">
         <v>20421</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>83294</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>146199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1973</v>
       </c>
       <c r="B25" s="1">
@@ -2492,10 +4957,18 @@
       <c r="H25" s="1">
         <v>18683</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>87768</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>162078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1974</v>
       </c>
       <c r="B26" s="1">
@@ -2516,10 +4989,18 @@
       <c r="H26" s="1">
         <v>22017</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>52008</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>148098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1975</v>
       </c>
       <c r="B27" s="1">
@@ -2540,10 +5021,18 @@
       <c r="H27" s="1">
         <v>22197</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>48164</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>161095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1976</v>
       </c>
       <c r="B28" s="1">
@@ -2564,10 +5053,18 @@
       <c r="H28" s="1">
         <v>26511</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>62813</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>183879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1977</v>
       </c>
       <c r="B29" s="1">
@@ -2588,10 +5085,18 @@
       <c r="H29" s="1">
         <v>15950</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>76377</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>153397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1978</v>
       </c>
       <c r="B30" s="1">
@@ -2612,10 +5117,18 @@
       <c r="H30" s="1">
         <v>15212</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>62115</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>150340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1979</v>
       </c>
       <c r="B31" s="1">
@@ -2636,10 +5149,18 @@
       <c r="H31" s="1">
         <v>18464</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>39923</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>138662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1980</v>
       </c>
       <c r="B32" s="1">
@@ -2660,10 +5181,18 @@
       <c r="H32" s="1">
         <v>21008</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>27321</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="1"/>
+        <v>110272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1981</v>
       </c>
       <c r="B33" s="1">
@@ -2684,10 +5213,18 @@
       <c r="H33" s="1">
         <v>21972</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>39637</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="1"/>
+        <v>116364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1982</v>
       </c>
       <c r="B34" s="1">
@@ -2708,10 +5245,18 @@
       <c r="H34" s="1">
         <v>20450</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>32712</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="1"/>
+        <v>72698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1983</v>
       </c>
       <c r="B35" s="1">
@@ -2735,10 +5280,18 @@
       <c r="H35" s="1">
         <v>20098</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="1">
+        <f t="shared" si="0"/>
+        <v>24026</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="1"/>
+        <v>118521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1984</v>
       </c>
       <c r="B36" s="1">
@@ -2762,10 +5315,18 @@
       <c r="H36" s="1">
         <v>18254</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="1">
+        <f t="shared" si="0"/>
+        <v>21746</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="1"/>
+        <v>94900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1985</v>
       </c>
       <c r="B37" s="1">
@@ -2789,8 +5350,16 @@
       <c r="H37" s="1">
         <v>19649</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="1">
+        <f t="shared" si="0"/>
+        <v>17351</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="1"/>
+        <v>128826</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>A37+1</f>
         <v>1986</v>
@@ -2816,10 +5385,18 @@
       <c r="H38" s="1">
         <v>16987</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="1">
+        <f t="shared" si="0"/>
+        <v>24013</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="1"/>
+        <v>158785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1987</v>
       </c>
       <c r="B39" s="1">
@@ -2843,10 +5420,18 @@
       <c r="H39" s="1">
         <v>21100</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="1">
+        <f t="shared" si="0"/>
+        <v>30900</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="1"/>
+        <v>193986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1988</v>
       </c>
       <c r="B40" s="1">
@@ -2870,10 +5455,18 @@
       <c r="H40" s="1">
         <v>19700</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="1">
+        <f t="shared" si="0"/>
+        <v>18300</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>184562</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1989</v>
       </c>
       <c r="B41" s="1">
@@ -2897,10 +5490,18 @@
       <c r="H41" s="1">
         <v>17400</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="1">
+        <f t="shared" si="0"/>
+        <v>17151</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="1"/>
+        <v>180831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1990</v>
       </c>
       <c r="B42" s="1">
@@ -2924,10 +5525,18 @@
       <c r="H42" s="1">
         <v>17100</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="1">
+        <f t="shared" si="0"/>
+        <v>17394</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="1"/>
+        <v>147136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1991</v>
       </c>
       <c r="B43" s="1">
@@ -2951,10 +5560,18 @@
       <c r="H43" s="1">
         <v>24400</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="1">
+        <f t="shared" si="0"/>
+        <v>9207</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="1"/>
+        <v>122590</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1992</v>
       </c>
       <c r="B44" s="1">
@@ -2978,8 +5595,16 @@
       <c r="H44" s="1">
         <v>22100</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="1">
+        <f t="shared" si="0"/>
+        <v>10249</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="1"/>
+        <v>135922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>A44+1</f>
         <v>1993</v>
@@ -3005,10 +5630,18 @@
       <c r="H45" s="1">
         <v>21433</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="1"/>
+        <v>134010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1994</v>
       </c>
       <c r="B46" s="1">
@@ -3032,10 +5665,18 @@
       <c r="H46" s="1">
         <v>9465</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="1">
+        <f t="shared" si="0"/>
+        <v>3457</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="1"/>
+        <v>141135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1995</v>
       </c>
       <c r="B47" s="1">
@@ -3059,10 +5700,18 @@
       <c r="H47" s="1">
         <v>4363</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="1">
+        <f t="shared" si="0"/>
+        <v>4342</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="1"/>
+        <v>102228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1996</v>
       </c>
       <c r="B48" s="1">
@@ -3086,10 +5735,18 @@
       <c r="H48" s="1">
         <v>2755</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="1">
+        <f t="shared" si="0"/>
+        <v>4415</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="1"/>
+        <v>117543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1997</v>
       </c>
       <c r="B49" s="1">
@@ -3113,10 +5770,18 @@
       <c r="H49" s="1">
         <v>2715</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="1">
+        <f t="shared" si="0"/>
+        <v>4978</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="1"/>
+        <v>139347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1998</v>
       </c>
       <c r="B50" s="1">
@@ -3140,10 +5805,18 @@
       <c r="H50" s="1">
         <v>1128</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="1">
+        <f t="shared" si="0"/>
+        <v>5403</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="1"/>
+        <v>130908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1999</v>
       </c>
       <c r="B51" s="1">
@@ -3167,8 +5840,16 @@
       <c r="H51" s="1">
         <v>1600</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="1">
+        <f t="shared" si="0"/>
+        <v>7680</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="1"/>
+        <v>140688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>A51+1</f>
         <v>2000</v>
@@ -3194,10 +5875,18 @@
       <c r="H52" s="1">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="1">
+        <f t="shared" si="0"/>
+        <v>8660</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="1"/>
+        <v>141393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2001</v>
       </c>
       <c r="B53" s="1">
@@ -3220,6 +5909,14 @@
       </c>
       <c r="H53" s="1">
         <v>1600</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="0"/>
+        <v>13297</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="1"/>
+        <v>147836</v>
       </c>
     </row>
   </sheetData>
@@ -3232,8 +5929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G21" activeCellId="1" sqref="F21 G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4559,10 +7256,1711 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1951</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1964</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" ref="A5:A53" si="0">A16+1</f>
+        <v>1965</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>135218</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>77890</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4576</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ref="I4:I53" si="1">MAX(0, G17-H17)</f>
+        <v>73314</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" ref="J4:J53" si="2">E17-H17-I17</f>
+        <v>57328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>1966</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>108329</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>51551</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7034</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>44517</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>56778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1967</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>131858</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>74258</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10834</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>63424</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>162267</v>
+      </c>
+      <c r="G20" s="1">
+        <v>103383</v>
+      </c>
+      <c r="H20" s="1">
+        <v>11593</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>91790</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>58884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>169739</v>
+      </c>
+      <c r="G21" s="1">
+        <v>110917</v>
+      </c>
+      <c r="H21" s="1">
+        <v>18931</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>91986</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>58822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>150999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>91898</v>
+      </c>
+      <c r="H22" s="1">
+        <v>25098</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>66800</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="2"/>
+        <v>59101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>1971</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>180948</v>
+      </c>
+      <c r="G23" s="1">
+        <v>106187</v>
+      </c>
+      <c r="H23" s="1">
+        <v>26874</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>79313</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="2"/>
+        <v>74761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>1972</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>206954</v>
+      </c>
+      <c r="G24" s="1">
+        <v>103715</v>
+      </c>
+      <c r="H24" s="1">
+        <v>20421</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>83294</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
+        <v>103239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>1973</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>211543</v>
+      </c>
+      <c r="G25" s="1">
+        <v>106451</v>
+      </c>
+      <c r="H25" s="1">
+        <v>18683</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>87768</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="2"/>
+        <v>105092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>169437</v>
+      </c>
+      <c r="G26" s="1">
+        <v>74025</v>
+      </c>
+      <c r="H26" s="1">
+        <v>22017</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>52008</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>95412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>1975</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>181846</v>
+      </c>
+      <c r="G27" s="1">
+        <v>70361</v>
+      </c>
+      <c r="H27" s="1">
+        <v>22197</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>48164</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="2"/>
+        <v>111485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>1976</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>209762</v>
+      </c>
+      <c r="G28" s="1">
+        <v>89324</v>
+      </c>
+      <c r="H28" s="1">
+        <v>26511</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>62813</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="2"/>
+        <v>120438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>1977</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>200201</v>
+      </c>
+      <c r="G29" s="1">
+        <v>92327</v>
+      </c>
+      <c r="H29" s="1">
+        <v>15950</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>76377</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>107874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>178678</v>
+      </c>
+      <c r="G30" s="1">
+        <v>77327</v>
+      </c>
+      <c r="H30" s="1">
+        <v>15212</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>62115</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>101351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>151717</v>
+      </c>
+      <c r="G31" s="1">
+        <v>58387</v>
+      </c>
+      <c r="H31" s="1">
+        <v>18464</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>39923</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>93330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>125013</v>
+      </c>
+      <c r="G32" s="1">
+        <v>48329</v>
+      </c>
+      <c r="H32" s="1">
+        <v>21008</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>27321</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="2"/>
+        <v>76684</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>1981</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>142441</v>
+      </c>
+      <c r="G33" s="1">
+        <v>61609</v>
+      </c>
+      <c r="H33" s="1">
+        <v>21972</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>39637</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="2"/>
+        <v>80832</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>104792</v>
+      </c>
+      <c r="G34" s="1">
+        <v>53162</v>
+      </c>
+      <c r="H34" s="1">
+        <v>20450</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>32712</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="2"/>
+        <v>51630</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>1983</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>134207</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9088</v>
+      </c>
+      <c r="G35" s="1">
+        <v>44124</v>
+      </c>
+      <c r="H35" s="1">
+        <v>20098</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>24026</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="2"/>
+        <v>90083</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>110874</v>
+      </c>
+      <c r="F36" s="1">
+        <v>11012</v>
+      </c>
+      <c r="G36" s="1">
+        <v>40000</v>
+      </c>
+      <c r="H36" s="1">
+        <v>18254</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>21746</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="2"/>
+        <v>70874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>139408</v>
+      </c>
+      <c r="F37" s="1">
+        <v>13958</v>
+      </c>
+      <c r="G37" s="1">
+        <v>37000</v>
+      </c>
+      <c r="H37" s="1">
+        <v>19649</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>17351</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="2"/>
+        <v>102408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>A37+1</f>
+        <v>1986</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>170863</v>
+      </c>
+      <c r="F38" s="1">
+        <v>22448</v>
+      </c>
+      <c r="G38" s="1">
+        <v>41000</v>
+      </c>
+      <c r="H38" s="1">
+        <v>16987</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="1"/>
+        <v>24013</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="2"/>
+        <v>129863</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>215340</v>
+      </c>
+      <c r="F39" s="1">
+        <v>34774</v>
+      </c>
+      <c r="G39" s="1">
+        <v>52000</v>
+      </c>
+      <c r="H39" s="1">
+        <v>21100</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="1"/>
+        <v>30900</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="2"/>
+        <v>163340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>1988</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>189635</v>
+      </c>
+      <c r="F40" s="1">
+        <v>36923</v>
+      </c>
+      <c r="G40" s="1">
+        <v>38000</v>
+      </c>
+      <c r="H40" s="1">
+        <v>19700</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>18300</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="2"/>
+        <v>151635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>183323</v>
+      </c>
+      <c r="F41" s="1">
+        <v>38914</v>
+      </c>
+      <c r="G41" s="1">
+        <v>34551</v>
+      </c>
+      <c r="H41" s="1">
+        <v>17400</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="1"/>
+        <v>17151</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="2"/>
+        <v>148772</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>150789</v>
+      </c>
+      <c r="F42" s="1">
+        <v>29359</v>
+      </c>
+      <c r="G42" s="1">
+        <v>34494</v>
+      </c>
+      <c r="H42" s="1">
+        <v>17100</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="1"/>
+        <v>17394</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="2"/>
+        <v>116295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>1991</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>130320</v>
+      </c>
+      <c r="F43" s="1">
+        <v>18649</v>
+      </c>
+      <c r="G43" s="1">
+        <v>33607</v>
+      </c>
+      <c r="H43" s="1">
+        <v>24400</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="1"/>
+        <v>9207</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="2"/>
+        <v>96713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>140475</v>
+      </c>
+      <c r="F44" s="1">
+        <v>23250</v>
+      </c>
+      <c r="G44" s="1">
+        <v>32349</v>
+      </c>
+      <c r="H44" s="1">
+        <v>22100</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="1"/>
+        <v>10249</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="2"/>
+        <v>108126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f>A44+1</f>
+        <v>1993</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>130220</v>
+      </c>
+      <c r="F45" s="1">
+        <v>32017</v>
+      </c>
+      <c r="G45" s="1">
+        <v>19566</v>
+      </c>
+      <c r="H45" s="1">
+        <v>21433</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="2"/>
+        <v>108787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>127550</v>
+      </c>
+      <c r="F46" s="1">
+        <v>31686</v>
+      </c>
+      <c r="G46" s="1">
+        <v>12922</v>
+      </c>
+      <c r="H46" s="1">
+        <v>9465</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="1"/>
+        <v>3457</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="2"/>
+        <v>114628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>89779</v>
+      </c>
+      <c r="F47" s="1">
+        <v>24106</v>
+      </c>
+      <c r="G47" s="1">
+        <v>8705</v>
+      </c>
+      <c r="H47" s="1">
+        <v>4363</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="1"/>
+        <v>4342</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="2"/>
+        <v>81074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>101854</v>
+      </c>
+      <c r="F48" s="1">
+        <v>23076</v>
+      </c>
+      <c r="G48" s="1">
+        <v>7170</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2755</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="1"/>
+        <v>4415</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="2"/>
+        <v>94684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <v>123302</v>
+      </c>
+      <c r="F49" s="1">
+        <v>27471</v>
+      </c>
+      <c r="G49" s="1">
+        <v>7693</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2715</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="1"/>
+        <v>4978</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="2"/>
+        <v>115609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>116797</v>
+      </c>
+      <c r="F50" s="1">
+        <v>27351</v>
+      </c>
+      <c r="G50" s="1">
+        <v>6531</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1128</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="1"/>
+        <v>5403</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="2"/>
+        <v>110266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>127118</v>
+      </c>
+      <c r="F51" s="1">
+        <v>28434</v>
+      </c>
+      <c r="G51" s="1">
+        <v>9280</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="1"/>
+        <v>7680</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="2"/>
+        <v>117838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f>A51+1</f>
+        <v>2000</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
+        <v>131076</v>
+      </c>
+      <c r="F52" s="1">
+        <v>28319</v>
+      </c>
+      <c r="G52" s="1">
+        <v>10260</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="1"/>
+        <v>8660</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="2"/>
+        <v>120816</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
+        <v>142373</v>
+      </c>
+      <c r="F53" s="1">
+        <v>31986</v>
+      </c>
+      <c r="G53" s="1">
+        <v>14897</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="1"/>
+        <v>13297</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="2"/>
+        <v>127476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1965</v>
+      </c>
+      <c r="B2" s="1">
+        <v>135218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1966</v>
+      </c>
+      <c r="B3" s="1">
+        <v>108329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A38" si="0">A3+1</f>
+        <v>1967</v>
+      </c>
+      <c r="B4" s="1">
+        <v>131858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+      <c r="B5" s="1">
+        <v>162267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
+      <c r="B6" s="1">
+        <v>169739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+      <c r="B7" s="1">
+        <v>150999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1971</v>
+      </c>
+      <c r="B8" s="1">
+        <v>180948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1972</v>
+      </c>
+      <c r="B9" s="1">
+        <v>206954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1973</v>
+      </c>
+      <c r="B10" s="1">
+        <v>211543</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+      <c r="B11" s="1">
+        <v>169437</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1975</v>
+      </c>
+      <c r="B12" s="1">
+        <v>181846</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1976</v>
+      </c>
+      <c r="B13" s="1">
+        <v>209762</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>1977</v>
+      </c>
+      <c r="B14" s="1">
+        <v>200201</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+      <c r="B15" s="1">
+        <v>178678</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+      <c r="B16" s="1">
+        <v>151717</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="B17" s="1">
+        <v>125013</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>1981</v>
+      </c>
+      <c r="B18" s="1">
+        <v>142441</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+      <c r="B19" s="1">
+        <v>104792</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>1983</v>
+      </c>
+      <c r="B20" s="1">
+        <v>134207</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+      <c r="B21" s="1">
+        <v>110874</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="B22" s="1">
+        <v>139408</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="B23" s="1">
+        <v>170863</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="B24" s="1">
+        <v>215340</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>1988</v>
+      </c>
+      <c r="B25" s="1">
+        <v>189635</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+      <c r="B26" s="1">
+        <v>183323</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="B27" s="1">
+        <v>150789</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>1991</v>
+      </c>
+      <c r="B28" s="1">
+        <v>130320</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="B29" s="1">
+        <v>140475</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f>A29+1</f>
+        <v>1993</v>
+      </c>
+      <c r="B30" s="1">
+        <v>130220</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="B31" s="1">
+        <v>127550</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="B32" s="1">
+        <v>89779</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="B33" s="1">
+        <v>101854</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="B34" s="1">
+        <v>123302</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="B35" s="1">
+        <v>116797</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="B36" s="1">
+        <v>127118</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f>A36+1</f>
+        <v>2000</v>
+      </c>
+      <c r="B37" s="1">
+        <v>131076</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="B38" s="1">
+        <v>142373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4726,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G19" si="2">D8</f>
+        <f t="shared" ref="G8:G18" si="2">D8</f>
         <v>8816</v>
       </c>
       <c r="H8">
